--- a/hardware/models/Gear/baseGear/calculations.xlsx
+++ b/hardware/models/Gear/baseGear/calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Robot-Arm\hardware\models\Gear\baseGear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{370FAEE5-781F-455E-9CDD-DA09A15DC37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE762CF-98E6-4D69-899B-279F8243F312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="4920" windowWidth="28800" windowHeight="15555" xr2:uid="{81F94400-3990-47DD-8D6C-9B3ECC25E245}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,8 +512,8 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <f>G8*COS(20*PI()/180)</f>
-        <v>59.764450681983767</v>
+        <f>D4*COS(20*PI()/180)</f>
+        <v>54.784079791818456</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
